--- a/materials/NLP-A/jelenlet/jelenlet_2025_k1618.xlsx
+++ b/materials/NLP-A/jelenlet/jelenlet_2025_k1618.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-A\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261155F0-DE97-4D65-93C7-859D8D639BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDE478C-2569-4E55-B587-FA5AAC4303BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -421,6 +421,9 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -438,9 +441,6 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -469,7 +469,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:P19" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="A2:P18" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="1"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2025. 02. 18." totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025. 02. 18.])</totalsRowFormula>
     </tableColumn>
@@ -509,7 +509,7 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2025. 05. 20." totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025. 05. 20.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="0">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
@@ -821,8 +821,8 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,8 +1109,8 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="23">
-        <f ca="1">NOW()+1</f>
-        <v>45727.366759259261</v>
+        <f ca="1">NOW()</f>
+        <v>45727.532411458335</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -1156,7 +1156,7 @@
   </sheetPr>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/materials/NLP-A/jelenlet/jelenlet_2025_k1618.xlsx
+++ b/materials/NLP-A/jelenlet/jelenlet_2025_k1618.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-A\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDE478C-2569-4E55-B587-FA5AAC4303BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550EC3C0-8B38-454F-8B5F-44505429624D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -421,9 +421,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -441,6 +438,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -469,7 +469,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:P19" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="A2:P18" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2025. 02. 18." totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025. 02. 18.])</totalsRowFormula>
     </tableColumn>
@@ -509,7 +509,7 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2025. 05. 20." totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025. 05. 20.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="0">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
@@ -903,7 +903,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="21">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="42" x14ac:dyDescent="0.35">
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="42" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
@@ -1110,7 +1110,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="23">
         <f ca="1">NOW()</f>
-        <v>45727.532411458335</v>
+        <v>45734.50012488426</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -1160,7 +1160,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="O5">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="s">
         <v>12</v>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="E19">
         <f>SUM(Táblázat3[2025. 03. 11.])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <f>SUM(Táblázat3[2025. 03. 18.])</f>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="O19">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-A/jelenlet/jelenlet_2025_k1618.xlsx
+++ b/materials/NLP-A/jelenlet/jelenlet_2025_k1618.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-A\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550EC3C0-8B38-454F-8B5F-44505429624D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2C9B20-0E3D-44F1-8737-8C543DBE0D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -821,7 +821,7 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -917,7 +917,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="21">
         <f>VLOOKUP(A6,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1057,7 +1057,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="21">
         <f>VLOOKUP(A16,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1110,7 +1110,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="23">
         <f ca="1">NOW()</f>
-        <v>45734.50012488426</v>
+        <v>45750.342441550929</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -1156,11 +1156,11 @@
   </sheetPr>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="O6">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="s">
         <v>14</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="O16" s="20">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="s">
         <v>34</v>
@@ -2094,11 +2094,11 @@
       </c>
       <c r="F19">
         <f>SUM(Táblázat3[2025. 03. 18.])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <f>SUM(Táblázat3[2025. 03. 25.])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <f>SUM(Táblázat3[2025. 04. 01.])</f>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="O19">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-A/jelenlet/jelenlet_2025_k1618.xlsx
+++ b/materials/NLP-A/jelenlet/jelenlet_2025_k1618.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-A\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2C9B20-0E3D-44F1-8737-8C543DBE0D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB96F6AC-D18F-49A7-9FF5-A026F39B3734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -889,7 +889,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="21">
         <f>VLOOKUP(A4,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -917,7 +917,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="21">
         <f>VLOOKUP(A6,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -945,7 +945,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="21">
         <f>VLOOKUP(A8,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -959,7 +959,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="21">
         <f>VLOOKUP(A9,Táblázat3[],15)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1015,7 +1015,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="21">
         <f>VLOOKUP(A13,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1029,7 +1029,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="21">
         <f>VLOOKUP(A14,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1110,7 +1110,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="23">
         <f ca="1">NOW()</f>
-        <v>45750.342441550929</v>
+        <v>45765.655286574074</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -1160,7 +1160,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="O4">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
         <v>10</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="O6">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" t="s">
         <v>14</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="O8">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="s">
         <v>18</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="O9">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P9" t="s">
         <v>20</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="O13" s="20">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="s">
         <v>28</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="O14" s="20">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="s">
         <v>30</v>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="I19">
         <f>SUM(Táblázat3[2025. 04. 15.])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J19">
         <f>SUM(Táblázat3[2025. 04. 22.])</f>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="O19">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-A/jelenlet/jelenlet_2025_k1618.xlsx
+++ b/materials/NLP-A/jelenlet/jelenlet_2025_k1618.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-A\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB96F6AC-D18F-49A7-9FF5-A026F39B3734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641B797B-72B7-4512-B57D-CFF9E8C4C073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -903,7 +903,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="21">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="42" x14ac:dyDescent="0.35">
@@ -945,7 +945,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="21">
         <f>VLOOKUP(A8,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -959,7 +959,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="21">
         <f>VLOOKUP(A9,Táblázat3[],15)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -987,7 +987,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="21">
         <f>VLOOKUP(A11,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1015,7 +1015,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="21">
         <f>VLOOKUP(A13,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1043,7 +1043,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="21">
         <f>VLOOKUP(A15,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1057,7 +1057,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="21">
         <f>VLOOKUP(A16,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1110,7 +1110,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="23">
         <f ca="1">NOW()</f>
-        <v>45765.655286574074</v>
+        <v>45776.774854861113</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -1160,7 +1160,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="O5">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5" t="s">
         <v>12</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="O8">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="s">
         <v>18</v>
@@ -1581,10 +1581,10 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="O9">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P9" t="s">
         <v>20</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="O11">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
         <v>24</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="O13" s="20">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="s">
         <v>28</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="O15" s="20">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="s">
         <v>32</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="O16" s="20">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" t="s">
         <v>34</v>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="J19">
         <f>SUM(Táblázat3[2025. 04. 22.])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K19">
         <f>SUM(Táblázat3[2025. 04. 29.])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L19">
         <f>SUM(Táblázat3[2025. 05. 06.])</f>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="O19">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-A/jelenlet/jelenlet_2025_k1618.xlsx
+++ b/materials/NLP-A/jelenlet/jelenlet_2025_k1618.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-A\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641B797B-72B7-4512-B57D-CFF9E8C4C073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF3AC89-0A06-40F7-87DF-7435803D1EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -421,6 +421,9 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -438,9 +441,6 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -469,7 +469,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:P19" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="A2:P18" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="1"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2025. 02. 18." totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025. 02. 18.])</totalsRowFormula>
     </tableColumn>
@@ -509,7 +509,7 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2025. 05. 20." totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025. 05. 20.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="0">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
@@ -821,7 +821,7 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -1110,7 +1110,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="23">
         <f ca="1">NOW()</f>
-        <v>45776.774854861113</v>
+        <v>45783.384784490743</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -1156,7 +1156,7 @@
   </sheetPr>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/materials/NLP-A/jelenlet/jelenlet_2025_k1618.xlsx
+++ b/materials/NLP-A/jelenlet/jelenlet_2025_k1618.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-A\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF3AC89-0A06-40F7-87DF-7435803D1EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F548396E-2137-4940-BF5A-14B9218701C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -421,9 +421,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -441,6 +438,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -469,7 +469,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:P19" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="A2:P18" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2025. 02. 18." totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025. 02. 18.])</totalsRowFormula>
     </tableColumn>
@@ -509,7 +509,7 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2025. 05. 20." totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025. 05. 20.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="0">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
@@ -821,7 +821,7 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -945,7 +945,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="21">
         <f>VLOOKUP(A8,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -959,7 +959,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="21">
         <f>VLOOKUP(A9,Táblázat3[],15)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1110,7 +1110,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="23">
         <f ca="1">NOW()</f>
-        <v>45783.384784490743</v>
+        <v>45786.621283449073</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -1156,11 +1156,11 @@
   </sheetPr>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="O8">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P8" t="s">
         <v>18</v>
@@ -1587,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="O9">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P9" t="s">
         <v>20</v>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="L19">
         <f>SUM(Táblázat3[2025. 05. 06.])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19">
         <f>SUM(Táblázat3[2025. 05. 13.])</f>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="O19">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-A/jelenlet/jelenlet_2025_k1618.xlsx
+++ b/materials/NLP-A/jelenlet/jelenlet_2025_k1618.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-A\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F548396E-2137-4940-BF5A-14B9218701C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04CA10E-326D-4CE2-B23E-4A2B36E79E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>Név</t>
   </si>
@@ -207,6 +207,15 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>MARK</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -345,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -400,6 +409,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -419,7 +440,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <font>
         <b/>
@@ -438,6 +459,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -466,10 +490,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:P19" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="A2:P18" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:Q19" totalsRowCount="1" headerRowDxfId="4">
+  <autoFilter ref="A2:Q18" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="3" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2025. 02. 18." totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025. 02. 18.])</totalsRowFormula>
     </tableColumn>
@@ -509,11 +533,12 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2025. 05. 20." totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025. 05. 20.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="2">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="21" xr3:uid="{99355BC7-039B-4FC4-9826-FB67580683F4}" name="NK"/>
+    <tableColumn id="15" xr3:uid="{4DE49375-9D25-49E8-ACBD-02C8837B8666}" name="MARK" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -837,15 +862,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -875,7 +900,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="21">
         <f>VLOOKUP(A3,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -903,7 +928,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="21">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="42" x14ac:dyDescent="0.35">
@@ -917,7 +942,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="21">
         <f>VLOOKUP(A6,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -931,7 +956,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="21">
         <f>VLOOKUP(A7,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -945,7 +970,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="21">
         <f>VLOOKUP(A8,Táblázat3[],15)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -959,7 +984,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="21">
         <f>VLOOKUP(A9,Táblázat3[],15)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -973,7 +998,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="21">
         <f>VLOOKUP(A10,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -987,7 +1012,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="21">
         <f>VLOOKUP(A11,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1001,7 +1026,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="21">
         <f>VLOOKUP(A12,Táblázat3[],15)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1015,7 +1040,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="21">
         <f>VLOOKUP(A13,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1029,7 +1054,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="21">
         <f>VLOOKUP(A14,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1043,7 +1068,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="21">
         <f>VLOOKUP(A15,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1057,7 +1082,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="21">
         <f>VLOOKUP(A16,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1085,7 +1110,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="21">
         <f>VLOOKUP(A18,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1108,12 +1133,12 @@
         <v>3</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="23">
+      <c r="E21" s="27">
         <f ca="1">NOW()</f>
-        <v>45786.621283449073</v>
-      </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
+        <v>45810.487220717594</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C22" s="2"/>
@@ -1126,16 +1151,16 @@
         <v>2</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="E24" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1160,7 +1185,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,27 +1193,29 @@
     <col min="1" max="1" width="30.28515625" customWidth="1"/>
     <col min="2" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="26">
+      <c r="A1" s="30">
         <v>2025</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1238,6 +1265,9 @@
       </c>
       <c r="P2" s="19" t="s">
         <v>5</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1281,16 +1311,18 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="4"/>
+      <c r="Q3" s="22">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
@@ -1342,7 +1374,9 @@
       <c r="P4" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="4"/>
+      <c r="Q4" s="23">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
@@ -1382,19 +1416,21 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="4"/>
+      <c r="Q5" s="24" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
@@ -1437,16 +1473,18 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P6" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="4"/>
+      <c r="Q6" s="25" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
@@ -1489,16 +1527,18 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="23">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
@@ -1541,16 +1581,18 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="4"/>
+      <c r="Q8" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
@@ -1590,19 +1632,21 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P9" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="4"/>
+      <c r="Q9" s="23">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -1645,16 +1689,18 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="22">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
@@ -1697,16 +1743,18 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="4"/>
+      <c r="Q11" s="24" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
@@ -1749,16 +1797,18 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P12" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" s="4"/>
+      <c r="Q12" s="23">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
@@ -1801,16 +1851,18 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="20">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P13" t="s">
         <v>28</v>
       </c>
-      <c r="Q13" s="4"/>
+      <c r="Q13" s="22">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -1853,16 +1905,18 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="20">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="s">
         <v>30</v>
       </c>
-      <c r="Q14" s="4"/>
+      <c r="Q14" s="23">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
@@ -1905,16 +1959,18 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="20">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" t="s">
         <v>32</v>
       </c>
-      <c r="Q15" s="4"/>
+      <c r="Q15" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1957,16 +2013,18 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="20">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P16" t="s">
         <v>34</v>
       </c>
-      <c r="Q16" s="4"/>
+      <c r="Q16" s="22">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2018,7 +2076,9 @@
       <c r="P17" t="s">
         <v>35</v>
       </c>
-      <c r="Q17" s="4"/>
+      <c r="Q17" s="23">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2061,16 +2121,18 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="20">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 18.]:[2025. 05. 20.]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="s">
         <v>37</v>
       </c>
-      <c r="Q18" s="4"/>
+      <c r="Q18" s="23">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
@@ -2122,20 +2184,20 @@
       </c>
       <c r="M19">
         <f>SUM(Táblázat3[2025. 05. 13.])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19">
         <f>SUM(Táblázat3[2025. 05. 20.])</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O19">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
